--- a/scripts/shstrophies/data/Mr Torren_s initial data input/Spring Awards/Softball.xlsx
+++ b/scripts/shstrophies/data/Mr Torren_s initial data input/Spring Awards/Softball.xlsx
@@ -26,129 +26,150 @@
     <t>JV Captain</t>
   </si>
   <si>
+    <t>Coaches Award</t>
+  </si>
+  <si>
+    <t>Most Inspirational</t>
+  </si>
+  <si>
     <t>Varsity Captain</t>
   </si>
   <si>
-    <t>Coaches Award</t>
-  </si>
-  <si>
     <t>Eleanor Patrick Memorail Award</t>
   </si>
   <si>
-    <t>Most Inspirational</t>
-  </si>
-  <si>
     <t>image URL</t>
   </si>
   <si>
     <t>DEFAULT IMAGE</t>
   </si>
   <si>
+    <t>2007/2008</t>
+  </si>
+  <si>
+    <t>2008/2009</t>
+  </si>
+  <si>
+    <t>2009/2010</t>
+  </si>
+  <si>
+    <t>Talia Sisco</t>
+  </si>
+  <si>
+    <t>Morgan Webster</t>
+  </si>
+  <si>
+    <t>Izzy Albert</t>
+  </si>
+  <si>
+    <t>Abby Williams</t>
+  </si>
+  <si>
+    <t>2010/2011</t>
+  </si>
+  <si>
+    <t>Julia Sakamoto</t>
+  </si>
+  <si>
+    <t>Nicole Grabar</t>
+  </si>
+  <si>
+    <t>Lauren Pataky</t>
+  </si>
+  <si>
+    <t>Abigail Small</t>
+  </si>
+  <si>
+    <t>2011/2012</t>
+  </si>
+  <si>
+    <t>Mikayla Davis</t>
+  </si>
+  <si>
+    <t>Hannah Hulme</t>
+  </si>
+  <si>
+    <t>Danielle Bruno</t>
+  </si>
+  <si>
+    <t>Madison Sloan</t>
+  </si>
+  <si>
+    <t>2012/2013</t>
+  </si>
+  <si>
+    <t>Samantha Davey</t>
+  </si>
+  <si>
+    <t>Corinne Bryan</t>
+  </si>
+  <si>
+    <t>Amanda Alexander</t>
+  </si>
+  <si>
+    <t>Carmine Drohan</t>
+  </si>
+  <si>
+    <t>2013/2014</t>
+  </si>
+  <si>
+    <t>Rachel Davey</t>
+  </si>
+  <si>
+    <t>Saba Hakimzadehabianeh</t>
+  </si>
+  <si>
+    <t>Sarah Price</t>
+  </si>
+  <si>
+    <t>Natasha Ramakrishnan</t>
+  </si>
+  <si>
+    <t>2014/2015</t>
+  </si>
+  <si>
+    <t>2015/2016</t>
+  </si>
+  <si>
+    <t>Samantha Martinez-Hansen</t>
+  </si>
+  <si>
+    <t>Sirisha Munukutla</t>
+  </si>
+  <si>
+    <t>Kate Bossi</t>
+  </si>
+  <si>
+    <t>2016/2017</t>
+  </si>
+  <si>
+    <t>2017/2018</t>
+  </si>
+  <si>
+    <t>2018/2019</t>
+  </si>
+  <si>
     <t>https://drive.google.com/file/d/1aKbbI_LGJM_5chK9gSHUCMdskxsFWr5S/view</t>
   </si>
   <si>
-    <t>2007/2008</t>
-  </si>
-  <si>
-    <t>2008/2009</t>
-  </si>
-  <si>
-    <t>2009/2010</t>
-  </si>
-  <si>
-    <t>Talia Sisco</t>
-  </si>
-  <si>
-    <t>Morgan Webster</t>
-  </si>
-  <si>
-    <t>Izzy Albert</t>
-  </si>
-  <si>
-    <t>Abby Williams</t>
-  </si>
-  <si>
-    <t>2010/2011</t>
-  </si>
-  <si>
-    <t>Julia Sakamoto</t>
-  </si>
-  <si>
-    <t>Nicole Grabar</t>
-  </si>
-  <si>
-    <t>Lauren Pataky</t>
-  </si>
-  <si>
-    <t>Abigail Small</t>
-  </si>
-  <si>
-    <t>2011/2012</t>
-  </si>
-  <si>
-    <t>Mikayla Davis</t>
-  </si>
-  <si>
-    <t>Hannah Hulme</t>
-  </si>
-  <si>
-    <t>Danielle Bruno</t>
-  </si>
-  <si>
-    <t>Madison Sloan</t>
-  </si>
-  <si>
-    <t>2012/2013</t>
-  </si>
-  <si>
-    <t>Samantha Davey</t>
-  </si>
-  <si>
-    <t>Corinne Bryan</t>
-  </si>
-  <si>
-    <t>Amanda Alexander</t>
-  </si>
-  <si>
-    <t>Carmine Drohan</t>
-  </si>
-  <si>
     <t>2000/2001</t>
   </si>
   <si>
     <t>Alexis Weiner</t>
   </si>
   <si>
-    <t>2013/2014</t>
-  </si>
-  <si>
     <t>2001/2002</t>
   </si>
   <si>
-    <t>Rachel Davey</t>
-  </si>
-  <si>
-    <t>Saba Hakimzadehabianeh</t>
-  </si>
-  <si>
     <t>Kelli Bryan</t>
   </si>
   <si>
-    <t>Sarah Price</t>
-  </si>
-  <si>
-    <t>Natasha Ramakrishnan</t>
-  </si>
-  <si>
     <t>2002/2003</t>
   </si>
   <si>
     <t>Kelly Bac</t>
   </si>
   <si>
-    <t>2014/2015</t>
-  </si>
-  <si>
     <t>2003/2004</t>
   </si>
   <si>
@@ -173,15 +194,9 @@
     <t>Erica Baba</t>
   </si>
   <si>
-    <t>2015/2016</t>
-  </si>
-  <si>
     <t>Stephanie Borsum</t>
   </si>
   <si>
-    <t>Samantha Martinez-Hansen</t>
-  </si>
-  <si>
     <t>Satomi Ishikawa</t>
   </si>
   <si>
@@ -197,12 +212,6 @@
     <t>Emily Baba</t>
   </si>
   <si>
-    <t>Sirisha Munukutla</t>
-  </si>
-  <si>
-    <t>Kate Bossi</t>
-  </si>
-  <si>
     <t>Krittika Patil</t>
   </si>
   <si>
@@ -216,15 +225,6 @@
   </si>
   <si>
     <t>Tivoli Sisco</t>
-  </si>
-  <si>
-    <t>2016/2017</t>
-  </si>
-  <si>
-    <t>2017/2018</t>
-  </si>
-  <si>
-    <t>2018/2019</t>
   </si>
   <si>
     <t>Jonathan Mastman</t>
@@ -308,12 +308,12 @@
     </font>
     <font/>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <u/>
       <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -370,26 +370,26 @@
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
@@ -444,37 +444,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -486,144 +486,144 @@
       <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>10</v>
+      <c r="E2" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
-        <v>33</v>
+      <c r="A3" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="8" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>36</v>
+      <c r="A4" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>42</v>
+      <c r="A5" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="8" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="s">
-        <v>45</v>
+      <c r="A6" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="7"/>
+      <c r="A7" s="6"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="8" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="s">
-        <v>47</v>
+      <c r="A8" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="8" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="s">
-        <v>49</v>
+      <c r="A9" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="8" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
-        <v>51</v>
+      <c r="A10" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="8" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="s">
-        <v>11</v>
+      <c r="A11" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="8" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="s">
-        <v>12</v>
+      <c r="A12" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="s">
-        <v>13</v>
+      <c r="A13" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -632,33 +632,33 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="s">
-        <v>18</v>
+      <c r="A15" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="7"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -668,8 +668,8 @@
       <c r="F16" s="8"/>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="s">
-        <v>23</v>
+      <c r="A17" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>72</v>
@@ -678,7 +678,7 @@
         <v>73</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>74</v>
@@ -696,18 +696,18 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="s">
-        <v>28</v>
+      <c r="A19" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>77</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>78</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="20">
       <c r="A20" s="9"/>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>79</v>
       </c>
       <c r="C20" s="2"/>
@@ -730,20 +730,20 @@
       <c r="F20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="s">
-        <v>35</v>
+      <c r="A21" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>77</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F21" s="2"/>
     </row>
@@ -766,14 +766,14 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="7" t="s">
-        <v>44</v>
+      <c r="A24" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>79</v>
@@ -782,7 +782,7 @@
         <v>82</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>76</v>
@@ -791,59 +791,59 @@
     </row>
     <row r="25">
       <c r="A25" s="9"/>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9"/>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="10" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="11" t="s">
+      <c r="A27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="11" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="9"/>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="9"/>
-      <c r="B29" s="12"/>
-      <c r="D29" s="11" t="s">
-        <v>41</v>
+      <c r="B29" s="11"/>
+      <c r="D29" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9"/>
-      <c r="B30" s="12"/>
-      <c r="D30" s="12" t="s">
+      <c r="B30" s="11"/>
+      <c r="D30" s="11" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="13" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -852,40 +852,40 @@
       <c r="F31" s="15"/>
     </row>
     <row r="32">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E33" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>61</v>
+      <c r="E33" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="34">
@@ -926,10 +926,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -953,7 +953,7 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -993,8 +993,8 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
-        <v>11</v>
+      <c r="A3" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1023,8 +1023,8 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>12</v>
+      <c r="A4" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1053,21 +1053,21 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -1091,20 +1091,20 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1129,20 +1129,20 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1167,20 +1167,20 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1208,7 +1208,7 @@
       <c r="A9" s="9"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1238,7 +1238,7 @@
       <c r="A10" s="9"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1265,23 +1265,23 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="F11" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1305,8 +1305,8 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="s">
-        <v>44</v>
+      <c r="A12" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="B12" s="8">
         <v>0.0</v>
@@ -1341,38 +1341,38 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>62</v>
+      <c r="A13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9"/>
-      <c r="D14" s="12" t="s">
-        <v>55</v>
+      <c r="D14" s="11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="s">
-        <v>68</v>
+      <c r="A15" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="s">
-        <v>69</v>
+      <c r="A16" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="s">
-        <v>70</v>
+      <c r="A17" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
